--- a/medicine/Hématologie/Effet_Fåhræus–Lindqvist/Effet_Fåhræus–Lindqvist.xlsx
+++ b/medicine/Hématologie/Effet_Fåhræus–Lindqvist/Effet_Fåhræus–Lindqvist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Effet_F%C3%A5hr%C3%A6us%E2%80%93Lindqvist</t>
+          <t>Effet_Fåhræus–Lindqvist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'effet Fåhræus–Lindqvist est un effet selon lequel la viscosité d'un fluide (non newtonien), dans ce cas du sang, dépend du diamètre du tube qu'il traverse. La viscosité diminue quand le diamètre du tube diminue pour des diamètres compris entre 6 µm et 1 mm. Cependant en dessous de 6µm de diamètre la viscosité augmente de nouveau avec la diminution du diamètre du tube.
 Cet effet est dû au fait que le manchon plasmatique occupe en pourcentage beaucoup plus de place que dans les gros vaisseaux, ainsi le taux de cisaillement est très élevé entraînant une diminution de la viscosité du sang.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Effet_F%C3%A5hr%C3%A6us%E2%80%93Lindqvist</t>
+          <t>Effet_Fåhræus–Lindqvist</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Fåhræus–Lindqvist effect » (voir la liste des auteurs).
  Portail de l’hématologie   Portail de la physique                    </t>
